--- a/Учет контрольных/ПиОА Original (Контрольная работа 1) DIV100.xlsx
+++ b/Учет контрольных/ПиОА Original (Контрольная работа 1) DIV100.xlsx
@@ -478,16 +478,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
@@ -507,13 +507,13 @@
         <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
         <v>7.000000000000001</v>
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
@@ -585,13 +585,13 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>5</v>
@@ -623,7 +623,7 @@
         <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -643,7 +643,7 @@
         <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
         <v>9</v>
@@ -686,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" t="n">
         <v>12</v>
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
         <v>12</v>
@@ -738,7 +738,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
         <v>12</v>
@@ -773,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
         <v>11</v>
@@ -793,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" t="n">
         <v>11</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G14" t="n">
         <v>11</v>
@@ -845,7 +845,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E16" t="n">
         <v>6</v>
@@ -877,7 +877,7 @@
         <v>11</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
         <v>11</v>
@@ -897,7 +897,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -926,7 +926,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
         <v>6</v>
@@ -949,10 +949,10 @@
         <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
         <v>8</v>
@@ -975,13 +975,13 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
         <v>7.000000000000001</v>
@@ -1007,7 +1007,7 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>16</v>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
         <v>12</v>
@@ -1079,13 +1079,13 @@
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25" t="n">
         <v>7.000000000000001</v>
@@ -1128,7 +1128,7 @@
         <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
@@ -1186,10 +1186,10 @@
         <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29" t="n">
         <v>5</v>
@@ -1215,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G30" t="n">
         <v>10</v>
@@ -1241,7 +1241,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G31" t="n">
         <v>9</v>
@@ -1310,10 +1310,10 @@
         <v>11</v>
       </c>
       <c r="C34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -1345,7 +1345,7 @@
         <v>11</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G35" t="n">
         <v>11</v>
@@ -1397,7 +1397,7 @@
         <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
         <v>4</v>
@@ -1423,7 +1423,7 @@
         <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38" t="n">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>18</v>
       </c>
       <c r="C39" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" t="n">
         <v>12</v>
@@ -1469,13 +1469,13 @@
         <v>10</v>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G40" t="n">
         <v>10</v>
@@ -1507,7 +1507,7 @@
         <v>11</v>
       </c>
       <c r="H41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -1628,7 +1628,7 @@
         <v>6</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>6</v>
@@ -1683,7 +1683,7 @@
         <v>10</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G48" t="n">
         <v>10</v>
@@ -1709,7 +1709,7 @@
         <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
         <v>4</v>
@@ -1729,13 +1729,13 @@
         <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
         <v>5</v>
@@ -1784,10 +1784,10 @@
         <v>9</v>
       </c>
       <c r="E52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G52" t="n">
         <v>6</v>
@@ -1807,7 +1807,7 @@
         <v>9</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -1830,7 +1830,7 @@
         <v>16</v>
       </c>
       <c r="C54" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D54" t="n">
         <v>12</v>
@@ -1871,7 +1871,7 @@
         <v>11</v>
       </c>
       <c r="H55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
@@ -1882,7 +1882,7 @@
         <v>6</v>
       </c>
       <c r="C56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56" t="n">
         <v>11</v>
@@ -1908,7 +1908,7 @@
         <v>13</v>
       </c>
       <c r="C57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57" t="n">
         <v>12</v>
@@ -1963,7 +1963,7 @@
         <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E59" t="n">
         <v>7.000000000000001</v>
@@ -1972,7 +1972,7 @@
         <v>6</v>
       </c>
       <c r="G59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H59" t="n">
         <v>8</v>
@@ -1995,7 +1995,7 @@
         <v>5</v>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G60" t="n">
         <v>6</v>
@@ -2015,13 +2015,13 @@
         <v>12</v>
       </c>
       <c r="D61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E61" t="n">
         <v>11</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G61" t="n">
         <v>11</v>
@@ -2044,7 +2044,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="n">
         <v>10</v>
@@ -2070,10 +2070,10 @@
         <v>5</v>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G63" t="n">
         <v>5</v>
@@ -2099,7 +2099,7 @@
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G64" t="n">
         <v>9</v>
@@ -2119,7 +2119,7 @@
         <v>8</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -2148,10 +2148,10 @@
         <v>5</v>
       </c>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G66" t="n">
         <v>6</v>
@@ -2171,7 +2171,7 @@
         <v>9</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -2223,13 +2223,13 @@
         <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E69" t="n">
         <v>11</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G69" t="n">
         <v>10</v>
@@ -2275,13 +2275,13 @@
         <v>11</v>
       </c>
       <c r="D71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E71" t="n">
         <v>11</v>
       </c>
       <c r="F71" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G71" t="n">
         <v>10</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -2411,7 +2411,7 @@
         <v>11</v>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G76" t="n">
         <v>11</v>
@@ -2431,16 +2431,16 @@
         <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
         <v>2</v>
       </c>
       <c r="G77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H77" t="n">
         <v>3</v>
@@ -2535,10 +2535,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="F81" t="n">
         <v>6</v>
@@ -2567,7 +2567,7 @@
         <v>10</v>
       </c>
       <c r="F82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G82" t="n">
         <v>7.000000000000001</v>
@@ -2613,13 +2613,13 @@
         <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -2645,7 +2645,7 @@
         <v>10</v>
       </c>
       <c r="F85" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G85" t="n">
         <v>9</v>
@@ -2665,13 +2665,13 @@
         <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E86" t="n">
         <v>11</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G86" t="n">
         <v>11</v>
@@ -2688,7 +2688,7 @@
         <v>15</v>
       </c>
       <c r="C87" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D87" t="n">
         <v>12</v>
@@ -2717,13 +2717,13 @@
         <v>12</v>
       </c>
       <c r="D88" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E88" t="n">
         <v>11</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G88" t="n">
         <v>11</v>
@@ -2749,7 +2749,7 @@
         <v>10</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G89" t="n">
         <v>10</v>
@@ -2775,7 +2775,7 @@
         <v>3</v>
       </c>
       <c r="F90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -2821,7 +2821,7 @@
         <v>12</v>
       </c>
       <c r="D92" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E92" t="n">
         <v>11</v>
@@ -2847,13 +2847,13 @@
         <v>10</v>
       </c>
       <c r="D93" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="n">
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G93" t="n">
         <v>9</v>
@@ -2870,7 +2870,7 @@
         <v>11</v>
       </c>
       <c r="C94" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="n">
         <v>9</v>
@@ -2879,7 +2879,7 @@
         <v>10</v>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G94" t="n">
         <v>10</v>
@@ -2931,7 +2931,7 @@
         <v>11</v>
       </c>
       <c r="F96" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G96" t="n">
         <v>10</v>
@@ -2977,7 +2977,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="n">
         <v>10</v>
@@ -3003,7 +3003,7 @@
         <v>9</v>
       </c>
       <c r="D99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -3029,7 +3029,7 @@
         <v>11</v>
       </c>
       <c r="D100" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -3081,10 +3081,10 @@
         <v>9</v>
       </c>
       <c r="D102" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E102" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F102" t="n">
         <v>8</v>
@@ -3104,7 +3104,7 @@
         <v>14</v>
       </c>
       <c r="C103" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D103" t="n">
         <v>12</v>
@@ -3159,13 +3159,13 @@
         <v>8</v>
       </c>
       <c r="D105" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
       </c>
       <c r="F105" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G105" t="n">
         <v>10</v>
@@ -3182,7 +3182,7 @@
         <v>16</v>
       </c>
       <c r="C106" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D106" t="n">
         <v>11</v>
@@ -3191,7 +3191,7 @@
         <v>11</v>
       </c>
       <c r="F106" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G106" t="n">
         <v>10</v>
@@ -3237,13 +3237,13 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E108" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G108" t="n">
         <v>8</v>
@@ -3269,7 +3269,7 @@
         <v>11</v>
       </c>
       <c r="F109" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G109" t="n">
         <v>11</v>
@@ -3295,7 +3295,7 @@
         <v>9</v>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G110" t="n">
         <v>10</v>
@@ -3315,7 +3315,7 @@
         <v>8</v>
       </c>
       <c r="D111" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -3338,7 +3338,7 @@
         <v>3</v>
       </c>
       <c r="C112" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D112" t="n">
         <v>5</v>
@@ -3347,7 +3347,7 @@
         <v>5</v>
       </c>
       <c r="F112" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G112" t="n">
         <v>6</v>
@@ -3393,13 +3393,13 @@
         <v>10</v>
       </c>
       <c r="D114" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E114" t="n">
         <v>10</v>
       </c>
       <c r="F114" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G114" t="n">
         <v>10</v>
@@ -3520,7 +3520,7 @@
         <v>11</v>
       </c>
       <c r="C119" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="n">
         <v>10</v>
@@ -3529,7 +3529,7 @@
         <v>10</v>
       </c>
       <c r="F119" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G119" t="n">
         <v>9</v>
@@ -3575,7 +3575,7 @@
         <v>2</v>
       </c>
       <c r="D121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
         <v>2</v>
@@ -3650,10 +3650,10 @@
         <v>11</v>
       </c>
       <c r="C124" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D124" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="n">
         <v>11</v>
@@ -3679,7 +3679,7 @@
         <v>9</v>
       </c>
       <c r="D125" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E125" t="n">
         <v>9</v>
@@ -3711,7 +3711,7 @@
         <v>3</v>
       </c>
       <c r="F126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G126" t="n">
         <v>4</v>
@@ -3731,10 +3731,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="F127" t="n">
         <v>6</v>
@@ -3757,13 +3757,13 @@
         <v>11</v>
       </c>
       <c r="D128" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E128" t="n">
         <v>11</v>
       </c>
       <c r="F128" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G128" t="n">
         <v>10</v>
@@ -3780,7 +3780,7 @@
         <v>2</v>
       </c>
       <c r="C129" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D129" t="n">
         <v>12</v>
@@ -3858,7 +3858,7 @@
         <v>11</v>
       </c>
       <c r="C132" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="n">
         <v>10</v>
@@ -3887,7 +3887,7 @@
         <v>9</v>
       </c>
       <c r="D133" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="n">
         <v>10</v>
@@ -3939,13 +3939,13 @@
         <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E135" t="n">
         <v>11</v>
       </c>
       <c r="F135" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G135" t="n">
         <v>11</v>
@@ -3965,13 +3965,13 @@
         <v>4</v>
       </c>
       <c r="D136" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E136" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G136" t="n">
         <v>6</v>
@@ -3997,7 +3997,7 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G137" t="n">
         <v>9</v>
@@ -4043,13 +4043,13 @@
         <v>9</v>
       </c>
       <c r="D139" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E139" t="n">
         <v>11</v>
       </c>
       <c r="F139" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G139" t="n">
         <v>10</v>
@@ -4118,7 +4118,7 @@
         <v>14</v>
       </c>
       <c r="C142" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D142" t="n">
         <v>11</v>
@@ -4127,7 +4127,7 @@
         <v>11</v>
       </c>
       <c r="F142" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G142" t="n">
         <v>10</v>
@@ -4150,7 +4150,7 @@
         <v>6</v>
       </c>
       <c r="E143" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="F143" t="n">
         <v>6</v>
@@ -4182,7 +4182,7 @@
         <v>12</v>
       </c>
       <c r="G144" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H144" t="n">
         <v>12</v>
@@ -4199,7 +4199,7 @@
         <v>11</v>
       </c>
       <c r="D145" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E145" t="n">
         <v>9</v>
@@ -4280,7 +4280,7 @@
         <v>12</v>
       </c>
       <c r="E148" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="n">
         <v>12</v>
@@ -4326,7 +4326,7 @@
         <v>5</v>
       </c>
       <c r="C150" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D150" t="n">
         <v>12</v>
@@ -4355,13 +4355,13 @@
         <v>5</v>
       </c>
       <c r="D151" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
       </c>
       <c r="F151" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G151" t="n">
         <v>5</v>
@@ -4413,7 +4413,7 @@
         <v>9</v>
       </c>
       <c r="F153" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G153" t="n">
         <v>9</v>
@@ -4439,7 +4439,7 @@
         <v>9</v>
       </c>
       <c r="F154" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G154" t="n">
         <v>8</v>
@@ -4459,7 +4459,7 @@
         <v>5</v>
       </c>
       <c r="D155" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -4491,7 +4491,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F156" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G156" t="n">
         <v>7.000000000000001</v>
@@ -4523,7 +4523,7 @@
         <v>11</v>
       </c>
       <c r="H157" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158">
@@ -4537,10 +4537,10 @@
         <v>11</v>
       </c>
       <c r="D158" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F158" t="n">
         <v>10</v>
@@ -4563,7 +4563,7 @@
         <v>8</v>
       </c>
       <c r="D159" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -4641,13 +4641,13 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
       </c>
       <c r="F162" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G162" t="n">
         <v>7.000000000000001</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D165" t="n">
         <v>9</v>
@@ -4751,7 +4751,7 @@
         <v>8</v>
       </c>
       <c r="F166" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G166" t="n">
         <v>8</v>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D167" t="n">
         <v>5</v>
@@ -4777,7 +4777,7 @@
         <v>5</v>
       </c>
       <c r="F167" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G167" t="n">
         <v>6</v>
@@ -4855,7 +4855,7 @@
         <v>11</v>
       </c>
       <c r="F170" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G170" t="n">
         <v>11</v>
@@ -4875,7 +4875,7 @@
         <v>8</v>
       </c>
       <c r="D171" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E171" t="n">
         <v>8</v>
@@ -4907,7 +4907,7 @@
         <v>9</v>
       </c>
       <c r="F172" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G172" t="n">
         <v>9</v>
@@ -4924,7 +4924,7 @@
         <v>8</v>
       </c>
       <c r="C173" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="n">
         <v>11</v>
@@ -4953,7 +4953,7 @@
         <v>8</v>
       </c>
       <c r="D174" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E174" t="n">
         <v>8</v>
@@ -5083,7 +5083,7 @@
         <v>2</v>
       </c>
       <c r="D179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E179" t="n">
         <v>2</v>
@@ -5115,7 +5115,7 @@
         <v>11</v>
       </c>
       <c r="F180" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G180" t="n">
         <v>10</v>
@@ -5132,16 +5132,16 @@
         <v>15</v>
       </c>
       <c r="C181" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D181" t="n">
         <v>10</v>
       </c>
       <c r="E181" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G181" t="n">
         <v>11</v>
@@ -5167,7 +5167,7 @@
         <v>9</v>
       </c>
       <c r="F182" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G182" t="n">
         <v>6</v>
@@ -5193,7 +5193,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F183" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G183" t="n">
         <v>6</v>
@@ -5236,7 +5236,7 @@
         <v>14</v>
       </c>
       <c r="C185" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D185" t="n">
         <v>12</v>
@@ -5297,7 +5297,7 @@
         <v>9</v>
       </c>
       <c r="F187" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G187" t="n">
         <v>10</v>
@@ -5343,7 +5343,7 @@
         <v>5</v>
       </c>
       <c r="D189" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E189" t="n">
         <v>7.000000000000001</v>
@@ -5369,13 +5369,13 @@
         <v>5</v>
       </c>
       <c r="D190" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
       </c>
       <c r="F190" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G190" t="n">
         <v>5</v>
@@ -5395,13 +5395,13 @@
         <v>10</v>
       </c>
       <c r="D191" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E191" t="n">
         <v>11</v>
       </c>
       <c r="F191" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G191" t="n">
         <v>10</v>
@@ -5444,7 +5444,7 @@
         <v>13</v>
       </c>
       <c r="C193" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D193" t="n">
         <v>12</v>
@@ -5522,10 +5522,10 @@
         <v>9</v>
       </c>
       <c r="C196" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D196" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -5551,7 +5551,7 @@
         <v>12</v>
       </c>
       <c r="D197" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E197" t="n">
         <v>12</v>
@@ -5626,10 +5626,10 @@
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D200" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -5681,13 +5681,13 @@
         <v>12</v>
       </c>
       <c r="D202" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E202" t="n">
         <v>11</v>
       </c>
       <c r="F202" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G202" t="n">
         <v>10</v>
@@ -5707,13 +5707,13 @@
         <v>10</v>
       </c>
       <c r="D203" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E203" t="n">
         <v>11</v>
       </c>
       <c r="F203" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G203" t="n">
         <v>9</v>
@@ -5768,7 +5768,7 @@
         <v>8</v>
       </c>
       <c r="G205" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="H205" t="n">
         <v>8</v>
@@ -5863,13 +5863,13 @@
         <v>11</v>
       </c>
       <c r="D209" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E209" t="n">
         <v>11</v>
       </c>
       <c r="F209" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G209" t="n">
         <v>11</v>
@@ -5901,7 +5901,7 @@
         <v>11</v>
       </c>
       <c r="H210" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211">
@@ -5915,7 +5915,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D211" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E211" t="n">
         <v>6</v>
@@ -6016,7 +6016,7 @@
         <v>16</v>
       </c>
       <c r="C215" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D215" t="n">
         <v>11</v>
@@ -6025,7 +6025,7 @@
         <v>11</v>
       </c>
       <c r="F215" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G215" t="n">
         <v>10</v>
@@ -6045,7 +6045,7 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E216" t="n">
         <v>6</v>
@@ -6071,13 +6071,13 @@
         <v>5</v>
       </c>
       <c r="D217" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
       </c>
       <c r="F217" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G217" t="n">
         <v>5</v>
@@ -6097,7 +6097,7 @@
         <v>2</v>
       </c>
       <c r="D218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E218" t="n">
         <v>2</v>
@@ -6149,13 +6149,13 @@
         <v>11</v>
       </c>
       <c r="D220" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E220" t="n">
         <v>11</v>
       </c>
       <c r="F220" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G220" t="n">
         <v>10</v>
@@ -6276,7 +6276,7 @@
         <v>6</v>
       </c>
       <c r="C225" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D225" t="n">
         <v>9</v>
@@ -6285,7 +6285,7 @@
         <v>9</v>
       </c>
       <c r="F225" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G225" t="n">
         <v>9</v>
@@ -6331,7 +6331,7 @@
         <v>8</v>
       </c>
       <c r="D227" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E227" t="n">
         <v>8</v>
@@ -6415,7 +6415,7 @@
         <v>10</v>
       </c>
       <c r="F230" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G230" t="n">
         <v>8</v>
@@ -6435,13 +6435,13 @@
         <v>5</v>
       </c>
       <c r="D231" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
       </c>
       <c r="F231" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G231" t="n">
         <v>7.000000000000001</v>
@@ -6458,7 +6458,7 @@
         <v>12</v>
       </c>
       <c r="C232" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D232" t="n">
         <v>12</v>
@@ -6513,7 +6513,7 @@
         <v>10</v>
       </c>
       <c r="D234" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E234" t="n">
         <v>9</v>
@@ -6536,7 +6536,7 @@
         <v>16</v>
       </c>
       <c r="C235" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D235" t="n">
         <v>12</v>
@@ -6568,7 +6568,7 @@
         <v>6</v>
       </c>
       <c r="E236" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="F236" t="n">
         <v>6</v>
@@ -6591,13 +6591,13 @@
         <v>10</v>
       </c>
       <c r="D237" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E237" t="n">
         <v>11</v>
       </c>
       <c r="F237" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G237" t="n">
         <v>10</v>
@@ -6620,10 +6620,10 @@
         <v>5</v>
       </c>
       <c r="E238" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F238" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G238" t="n">
         <v>5</v>
@@ -6643,7 +6643,7 @@
         <v>2</v>
       </c>
       <c r="D239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E239" t="n">
         <v>2</v>
@@ -6669,13 +6669,13 @@
         <v>5</v>
       </c>
       <c r="D240" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
       </c>
       <c r="F240" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G240" t="n">
         <v>7.000000000000001</v>
@@ -6695,7 +6695,7 @@
         <v>2</v>
       </c>
       <c r="D241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E241" t="n">
         <v>2</v>
@@ -6721,10 +6721,10 @@
         <v>9</v>
       </c>
       <c r="D242" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E242" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="F242" t="n">
         <v>6</v>
@@ -6744,10 +6744,10 @@
         <v>5</v>
       </c>
       <c r="C243" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="D243" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E243" t="n">
         <v>6</v>
@@ -6799,13 +6799,13 @@
         <v>13</v>
       </c>
       <c r="D245" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E245" t="n">
         <v>11</v>
       </c>
       <c r="F245" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G245" t="n">
         <v>10</v>
@@ -6831,7 +6831,7 @@
         <v>11</v>
       </c>
       <c r="F246" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G246" t="n">
         <v>11</v>
@@ -6851,7 +6851,7 @@
         <v>10</v>
       </c>
       <c r="D247" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -6941,7 +6941,7 @@
         <v>11</v>
       </c>
       <c r="H250" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251">
@@ -7007,13 +7007,13 @@
         <v>11</v>
       </c>
       <c r="D253" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E253" t="n">
         <v>11</v>
       </c>
       <c r="F253" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G253" t="n">
         <v>11</v>
@@ -7033,7 +7033,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D254" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -7059,7 +7059,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D255" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E255" t="n">
         <v>9</v>
@@ -7082,7 +7082,7 @@
         <v>18</v>
       </c>
       <c r="C256" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D256" t="n">
         <v>12</v>
@@ -7111,13 +7111,13 @@
         <v>13</v>
       </c>
       <c r="D257" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E257" t="n">
         <v>11</v>
       </c>
       <c r="F257" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G257" t="n">
         <v>10</v>
@@ -7160,7 +7160,7 @@
         <v>8</v>
       </c>
       <c r="C259" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D259" t="n">
         <v>9</v>
@@ -7169,7 +7169,7 @@
         <v>10</v>
       </c>
       <c r="F259" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G259" t="n">
         <v>10</v>
@@ -7212,16 +7212,16 @@
         <v>10</v>
       </c>
       <c r="C261" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D261" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E261" t="n">
         <v>11</v>
       </c>
       <c r="F261" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G261" t="n">
         <v>10</v>
@@ -7267,7 +7267,7 @@
         <v>8</v>
       </c>
       <c r="D263" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E263" t="n">
         <v>7.000000000000001</v>
@@ -7293,7 +7293,7 @@
         <v>10</v>
       </c>
       <c r="D264" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E264" t="n">
         <v>10</v>
@@ -7345,7 +7345,7 @@
         <v>11</v>
       </c>
       <c r="D266" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E266" t="n">
         <v>11</v>
@@ -7429,7 +7429,7 @@
         <v>9</v>
       </c>
       <c r="F269" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G269" t="n">
         <v>9</v>
@@ -7475,7 +7475,7 @@
         <v>10</v>
       </c>
       <c r="D271" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E271" t="n">
         <v>10</v>
@@ -7524,7 +7524,7 @@
         <v>13</v>
       </c>
       <c r="C273" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D273" t="n">
         <v>12</v>
@@ -7550,7 +7550,7 @@
         <v>16</v>
       </c>
       <c r="C274" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D274" t="n">
         <v>10</v>
@@ -7559,7 +7559,7 @@
         <v>10</v>
       </c>
       <c r="F274" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G274" t="n">
         <v>9</v>
@@ -7579,13 +7579,13 @@
         <v>5</v>
       </c>
       <c r="D275" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
       </c>
       <c r="F275" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G275" t="n">
         <v>7.000000000000001</v>
@@ -7611,7 +7611,7 @@
         <v>10</v>
       </c>
       <c r="F276" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G276" t="n">
         <v>10</v>
@@ -7628,7 +7628,7 @@
         <v>16</v>
       </c>
       <c r="C277" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D277" t="n">
         <v>12</v>
@@ -7680,7 +7680,7 @@
         <v>15</v>
       </c>
       <c r="C279" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D279" t="n">
         <v>12</v>
@@ -7767,7 +7767,7 @@
         <v>2</v>
       </c>
       <c r="F282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G282" t="n">
         <v>3</v>
@@ -7813,7 +7813,7 @@
         <v>9</v>
       </c>
       <c r="D284" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E284" t="n">
         <v>10</v>
@@ -7839,13 +7839,13 @@
         <v>12</v>
       </c>
       <c r="D285" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E285" t="n">
         <v>11</v>
       </c>
       <c r="F285" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G285" t="n">
         <v>11</v>
@@ -7865,7 +7865,7 @@
         <v>10</v>
       </c>
       <c r="D286" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E286" t="n">
         <v>8</v>
@@ -7894,7 +7894,7 @@
         <v>4</v>
       </c>
       <c r="E287" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F287" t="n">
         <v>4</v>
@@ -7917,7 +7917,7 @@
         <v>8</v>
       </c>
       <c r="D288" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E288" t="n">
         <v>8</v>
@@ -7943,13 +7943,13 @@
         <v>12</v>
       </c>
       <c r="D289" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E289" t="n">
         <v>11</v>
       </c>
       <c r="F289" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G289" t="n">
         <v>11</v>
@@ -7969,13 +7969,13 @@
         <v>12</v>
       </c>
       <c r="D290" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E290" t="n">
         <v>11</v>
       </c>
       <c r="F290" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G290" t="n">
         <v>11</v>
@@ -7995,7 +7995,7 @@
         <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E291" t="n">
         <v>7.000000000000001</v>
@@ -8004,7 +8004,7 @@
         <v>6</v>
       </c>
       <c r="G291" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H291" t="n">
         <v>8</v>
@@ -8047,7 +8047,7 @@
         <v>10</v>
       </c>
       <c r="D293" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E293" t="n">
         <v>10</v>
@@ -8070,7 +8070,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="C294" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D294" t="n">
         <v>12</v>
@@ -8099,13 +8099,13 @@
         <v>12</v>
       </c>
       <c r="D295" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E295" t="n">
         <v>11</v>
       </c>
       <c r="F295" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G295" t="n">
         <v>11</v>
@@ -8125,13 +8125,13 @@
         <v>11</v>
       </c>
       <c r="D296" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E296" t="n">
         <v>11</v>
       </c>
       <c r="F296" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G296" t="n">
         <v>11</v>
@@ -8157,7 +8157,7 @@
         <v>9</v>
       </c>
       <c r="F297" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G297" t="n">
         <v>10</v>
@@ -8177,7 +8177,7 @@
         <v>9</v>
       </c>
       <c r="D298" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E298" t="n">
         <v>9</v>
@@ -8203,7 +8203,7 @@
         <v>1</v>
       </c>
       <c r="D299" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E299" t="n">
         <v>9</v>
@@ -8232,7 +8232,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="E300" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F300" t="n">
         <v>6</v>
@@ -8255,7 +8255,7 @@
         <v>10</v>
       </c>
       <c r="D301" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E301" t="n">
         <v>11</v>
@@ -8278,16 +8278,16 @@
         <v>16</v>
       </c>
       <c r="C302" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D302" t="n">
         <v>10</v>
       </c>
       <c r="E302" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F302" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G302" t="n">
         <v>10</v>
@@ -8307,7 +8307,7 @@
         <v>9</v>
       </c>
       <c r="D303" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E303" t="n">
         <v>10</v>
@@ -8385,13 +8385,13 @@
         <v>11</v>
       </c>
       <c r="D306" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E306" t="n">
         <v>11</v>
       </c>
       <c r="F306" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G306" t="n">
         <v>11</v>
@@ -8463,7 +8463,7 @@
         <v>8</v>
       </c>
       <c r="D309" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E309" t="n">
         <v>9</v>
@@ -8489,7 +8489,7 @@
         <v>10</v>
       </c>
       <c r="D310" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E310" t="n">
         <v>10</v>
@@ -8521,7 +8521,7 @@
         <v>11</v>
       </c>
       <c r="F311" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G311" t="n">
         <v>10</v>
@@ -8567,7 +8567,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D313" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E313" t="n">
         <v>10</v>
@@ -8593,13 +8593,13 @@
         <v>10</v>
       </c>
       <c r="D314" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E314" t="n">
         <v>11</v>
       </c>
       <c r="F314" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G314" t="n">
         <v>9</v>
@@ -8619,7 +8619,7 @@
         <v>9</v>
       </c>
       <c r="D315" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E315" t="n">
         <v>10</v>
@@ -8677,7 +8677,7 @@
         <v>10</v>
       </c>
       <c r="F317" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G317" t="n">
         <v>10</v>
@@ -8723,7 +8723,7 @@
         <v>9</v>
       </c>
       <c r="D319" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E319" t="n">
         <v>9</v>
@@ -8746,7 +8746,7 @@
         <v>18</v>
       </c>
       <c r="C320" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D320" t="n">
         <v>12</v>
@@ -8781,7 +8781,7 @@
         <v>11</v>
       </c>
       <c r="F321" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G321" t="n">
         <v>10</v>
@@ -8801,13 +8801,13 @@
         <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E322" t="n">
         <v>11</v>
       </c>
       <c r="F322" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G322" t="n">
         <v>10</v>
@@ -8824,7 +8824,7 @@
         <v>13</v>
       </c>
       <c r="C323" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D323" t="n">
         <v>12</v>
@@ -8850,7 +8850,7 @@
         <v>9</v>
       </c>
       <c r="C324" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D324" t="n">
         <v>12</v>
@@ -8879,13 +8879,13 @@
         <v>9</v>
       </c>
       <c r="D325" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E325" t="n">
         <v>11</v>
       </c>
       <c r="F325" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G325" t="n">
         <v>10</v>
@@ -8902,7 +8902,7 @@
         <v>17</v>
       </c>
       <c r="C326" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D326" t="n">
         <v>12</v>
@@ -8957,7 +8957,7 @@
         <v>10</v>
       </c>
       <c r="D328" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E328" t="n">
         <v>10</v>
@@ -9009,10 +9009,10 @@
         <v>9</v>
       </c>
       <c r="D330" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E330" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F330" t="n">
         <v>11</v>
@@ -9058,7 +9058,7 @@
         <v>14</v>
       </c>
       <c r="C332" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D332" t="n">
         <v>12</v>
@@ -9087,13 +9087,13 @@
         <v>4</v>
       </c>
       <c r="D333" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
       </c>
       <c r="F333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G333" t="n">
         <v>5</v>
@@ -9113,7 +9113,7 @@
         <v>2</v>
       </c>
       <c r="D334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E334" t="n">
         <v>2</v>
@@ -9266,7 +9266,7 @@
         <v>14</v>
       </c>
       <c r="C340" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D340" t="n">
         <v>12</v>
@@ -9321,7 +9321,7 @@
         <v>8</v>
       </c>
       <c r="D342" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E342" t="n">
         <v>6</v>
@@ -9431,7 +9431,7 @@
         <v>11</v>
       </c>
       <c r="F346" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G346" t="n">
         <v>11</v>
@@ -9451,13 +9451,13 @@
         <v>12</v>
       </c>
       <c r="D347" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E347" t="n">
         <v>11</v>
       </c>
       <c r="F347" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G347" t="n">
         <v>11</v>
@@ -9483,7 +9483,7 @@
         <v>9</v>
       </c>
       <c r="F348" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G348" t="n">
         <v>9</v>
@@ -9503,7 +9503,7 @@
         <v>5</v>
       </c>
       <c r="D349" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E349" t="n">
         <v>5</v>
@@ -9526,7 +9526,7 @@
         <v>8</v>
       </c>
       <c r="C350" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D350" t="n">
         <v>12</v>
@@ -9552,7 +9552,7 @@
         <v>11</v>
       </c>
       <c r="C351" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D351" t="n">
         <v>12</v>
@@ -9633,13 +9633,13 @@
         <v>11</v>
       </c>
       <c r="D354" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E354" t="n">
         <v>11</v>
       </c>
       <c r="F354" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G354" t="n">
         <v>11</v>
@@ -9662,10 +9662,10 @@
         <v>4</v>
       </c>
       <c r="E355" t="n">
+        <v>5</v>
+      </c>
+      <c r="F355" t="n">
         <v>4</v>
-      </c>
-      <c r="F355" t="n">
-        <v>5</v>
       </c>
       <c r="G355" t="n">
         <v>5</v>
@@ -9685,13 +9685,13 @@
         <v>10</v>
       </c>
       <c r="D356" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E356" t="n">
         <v>11</v>
       </c>
       <c r="F356" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G356" t="n">
         <v>10</v>
@@ -9711,13 +9711,13 @@
         <v>8</v>
       </c>
       <c r="D357" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E357" t="n">
         <v>9</v>
       </c>
       <c r="F357" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G357" t="n">
         <v>10</v>
@@ -9737,7 +9737,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D358" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E358" t="n">
         <v>7.000000000000001</v>
@@ -9760,7 +9760,7 @@
         <v>16</v>
       </c>
       <c r="C359" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D359" t="n">
         <v>11</v>
@@ -9795,7 +9795,7 @@
         <v>11</v>
       </c>
       <c r="F360" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G360" t="n">
         <v>11</v>
@@ -9815,13 +9815,13 @@
         <v>10</v>
       </c>
       <c r="D361" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E361" t="n">
         <v>11</v>
       </c>
       <c r="F361" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G361" t="n">
         <v>10</v>
@@ -9847,7 +9847,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F362" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G362" t="n">
         <v>6</v>
@@ -9876,7 +9876,7 @@
         <v>11</v>
       </c>
       <c r="G363" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H363" t="n">
         <v>10</v>
@@ -9899,7 +9899,7 @@
         <v>11</v>
       </c>
       <c r="F364" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G364" t="n">
         <v>11</v>
@@ -9925,7 +9925,7 @@
         <v>5</v>
       </c>
       <c r="F365" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G365" t="n">
         <v>6</v>
@@ -9945,13 +9945,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D366" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E366" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F366" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G366" t="n">
         <v>7.000000000000001</v>
@@ -9997,7 +9997,7 @@
         <v>8</v>
       </c>
       <c r="D368" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E368" t="n">
         <v>8</v>
@@ -10023,10 +10023,10 @@
         <v>6</v>
       </c>
       <c r="D369" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E369" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F369" t="n">
         <v>5</v>
@@ -10101,13 +10101,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D372" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E372" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F372" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G372" t="n">
         <v>7.000000000000001</v>
@@ -10133,7 +10133,7 @@
         <v>10</v>
       </c>
       <c r="F373" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G373" t="n">
         <v>10</v>
@@ -10153,10 +10153,10 @@
         <v>10</v>
       </c>
       <c r="D374" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E374" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F374" t="n">
         <v>11</v>
@@ -10179,13 +10179,13 @@
         <v>10</v>
       </c>
       <c r="D375" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E375" t="n">
         <v>11</v>
       </c>
       <c r="F375" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G375" t="n">
         <v>10</v>
@@ -10205,7 +10205,7 @@
         <v>8</v>
       </c>
       <c r="D376" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E376" t="n">
         <v>8</v>
@@ -10228,10 +10228,10 @@
         <v>0</v>
       </c>
       <c r="C377" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D377" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E377" t="n">
         <v>10</v>
@@ -10257,13 +10257,13 @@
         <v>10</v>
       </c>
       <c r="D378" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E378" t="n">
         <v>11</v>
       </c>
       <c r="F378" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G378" t="n">
         <v>10</v>
@@ -10295,7 +10295,7 @@
         <v>11</v>
       </c>
       <c r="H379" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="380">
@@ -10341,7 +10341,7 @@
         <v>10</v>
       </c>
       <c r="F381" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G381" t="n">
         <v>9</v>
@@ -10358,7 +10358,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="C382" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D382" t="n">
         <v>12</v>
@@ -10410,10 +10410,10 @@
         <v>6</v>
       </c>
       <c r="C384" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D384" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E384" t="n">
         <v>10</v>
@@ -10445,7 +10445,7 @@
         <v>2</v>
       </c>
       <c r="F385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G385" t="n">
         <v>3</v>
@@ -10491,13 +10491,13 @@
         <v>9</v>
       </c>
       <c r="D387" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E387" t="n">
         <v>11</v>
       </c>
       <c r="F387" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G387" t="n">
         <v>10</v>
@@ -10517,13 +10517,13 @@
         <v>10</v>
       </c>
       <c r="D388" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E388" t="n">
         <v>11</v>
       </c>
       <c r="F388" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G388" t="n">
         <v>10</v>
@@ -10543,7 +10543,7 @@
         <v>6</v>
       </c>
       <c r="D389" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E389" t="n">
         <v>7.000000000000001</v>
@@ -10552,7 +10552,7 @@
         <v>6</v>
       </c>
       <c r="G389" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H389" t="n">
         <v>8</v>
@@ -10566,7 +10566,7 @@
         <v>10</v>
       </c>
       <c r="C390" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D390" t="n">
         <v>12</v>
@@ -10601,7 +10601,7 @@
         <v>9</v>
       </c>
       <c r="F391" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G391" t="n">
         <v>9</v>
@@ -10621,10 +10621,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D392" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E392" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="F392" t="n">
         <v>6</v>
@@ -10647,16 +10647,16 @@
         <v>2</v>
       </c>
       <c r="D393" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E393" t="n">
         <v>3</v>
       </c>
       <c r="F393" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G393" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H393" t="n">
         <v>4</v>
@@ -10673,13 +10673,13 @@
         <v>10</v>
       </c>
       <c r="D394" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E394" t="n">
         <v>11</v>
       </c>
       <c r="F394" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G394" t="n">
         <v>10</v>
@@ -10699,13 +10699,13 @@
         <v>10</v>
       </c>
       <c r="D395" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E395" t="n">
         <v>11</v>
       </c>
       <c r="F395" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G395" t="n">
         <v>10</v>
@@ -10725,7 +10725,7 @@
         <v>8</v>
       </c>
       <c r="D396" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E396" t="n">
         <v>9</v>
@@ -10751,13 +10751,13 @@
         <v>10</v>
       </c>
       <c r="D397" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E397" t="n">
         <v>11</v>
       </c>
       <c r="F397" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G397" t="n">
         <v>10</v>
@@ -10777,13 +10777,13 @@
         <v>10</v>
       </c>
       <c r="D398" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E398" t="n">
         <v>11</v>
       </c>
       <c r="F398" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G398" t="n">
         <v>10</v>
@@ -10803,13 +10803,13 @@
         <v>9</v>
       </c>
       <c r="D399" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E399" t="n">
         <v>11</v>
       </c>
       <c r="F399" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G399" t="n">
         <v>10</v>
@@ -10829,7 +10829,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D400" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E400" t="n">
         <v>6</v>
@@ -10930,7 +10930,7 @@
         <v>9</v>
       </c>
       <c r="C404" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D404" t="n">
         <v>12</v>
@@ -10959,7 +10959,7 @@
         <v>5</v>
       </c>
       <c r="D405" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E405" t="n">
         <v>7.000000000000001</v>
@@ -10985,13 +10985,13 @@
         <v>11</v>
       </c>
       <c r="D406" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E406" t="n">
         <v>11</v>
       </c>
       <c r="F406" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G406" t="n">
         <v>10</v>
@@ -11008,7 +11008,7 @@
         <v>14</v>
       </c>
       <c r="C407" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D407" t="n">
         <v>11</v>
@@ -11017,7 +11017,7 @@
         <v>11</v>
       </c>
       <c r="F407" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G407" t="n">
         <v>10</v>
@@ -11037,13 +11037,13 @@
         <v>10</v>
       </c>
       <c r="D408" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E408" t="n">
         <v>11</v>
       </c>
       <c r="F408" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G408" t="n">
         <v>10</v>
@@ -11063,13 +11063,13 @@
         <v>10</v>
       </c>
       <c r="D409" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E409" t="n">
         <v>11</v>
       </c>
       <c r="F409" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G409" t="n">
         <v>10</v>
@@ -11086,7 +11086,7 @@
         <v>14</v>
       </c>
       <c r="C410" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D410" t="n">
         <v>11</v>
@@ -11115,7 +11115,7 @@
         <v>8</v>
       </c>
       <c r="D411" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E411" t="n">
         <v>8</v>
@@ -11167,13 +11167,13 @@
         <v>10</v>
       </c>
       <c r="D413" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E413" t="n">
         <v>11</v>
       </c>
       <c r="F413" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G413" t="n">
         <v>10</v>
@@ -11219,7 +11219,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D415" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E415" t="n">
         <v>6</v>
@@ -11271,7 +11271,7 @@
         <v>2</v>
       </c>
       <c r="D417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E417" t="n">
         <v>2</v>
@@ -11329,7 +11329,7 @@
         <v>11</v>
       </c>
       <c r="F419" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G419" t="n">
         <v>11</v>
@@ -11375,13 +11375,13 @@
         <v>9</v>
       </c>
       <c r="D421" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E421" t="n">
         <v>11</v>
       </c>
       <c r="F421" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G421" t="n">
         <v>10</v>
@@ -11398,7 +11398,7 @@
         <v>6</v>
       </c>
       <c r="C422" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D422" t="n">
         <v>12</v>
@@ -11427,13 +11427,13 @@
         <v>9</v>
       </c>
       <c r="D423" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E423" t="n">
         <v>11</v>
       </c>
       <c r="F423" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G423" t="n">
         <v>10</v>
@@ -11450,7 +11450,7 @@
         <v>13</v>
       </c>
       <c r="C424" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D424" t="n">
         <v>11</v>
@@ -11476,7 +11476,7 @@
         <v>14</v>
       </c>
       <c r="C425" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D425" t="n">
         <v>9</v>
@@ -11485,7 +11485,7 @@
         <v>10</v>
       </c>
       <c r="F425" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G425" t="n">
         <v>9</v>
@@ -11583,13 +11583,13 @@
         <v>11</v>
       </c>
       <c r="D429" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E429" t="n">
         <v>11</v>
       </c>
       <c r="F429" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G429" t="n">
         <v>10</v>
@@ -11609,7 +11609,7 @@
         <v>6</v>
       </c>
       <c r="D430" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E430" t="n">
         <v>10</v>
@@ -11632,7 +11632,7 @@
         <v>13</v>
       </c>
       <c r="C431" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D431" t="n">
         <v>12</v>
@@ -11661,13 +11661,13 @@
         <v>9</v>
       </c>
       <c r="D432" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E432" t="n">
         <v>11</v>
       </c>
       <c r="F432" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G432" t="n">
         <v>10</v>
@@ -11687,7 +11687,7 @@
         <v>6</v>
       </c>
       <c r="D433" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E433" t="n">
         <v>10</v>
@@ -11713,7 +11713,7 @@
         <v>10</v>
       </c>
       <c r="D434" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E434" t="n">
         <v>11</v>
@@ -11739,13 +11739,13 @@
         <v>10</v>
       </c>
       <c r="D435" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E435" t="n">
         <v>10</v>
       </c>
       <c r="F435" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G435" t="n">
         <v>11</v>
@@ -11875,7 +11875,7 @@
         <v>10</v>
       </c>
       <c r="F440" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G440" t="n">
         <v>8</v>
@@ -11895,7 +11895,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D441" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E441" t="n">
         <v>6</v>
@@ -11927,7 +11927,7 @@
         <v>8</v>
       </c>
       <c r="F442" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G442" t="n">
         <v>7.000000000000001</v>
@@ -11950,13 +11950,13 @@
         <v>3</v>
       </c>
       <c r="E443" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G443" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H443" t="n">
         <v>4</v>
@@ -11979,7 +11979,7 @@
         <v>11</v>
       </c>
       <c r="F444" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G444" t="n">
         <v>10</v>
@@ -11999,7 +11999,7 @@
         <v>8</v>
       </c>
       <c r="D445" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E445" t="n">
         <v>9</v>
@@ -12025,7 +12025,7 @@
         <v>10</v>
       </c>
       <c r="D446" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E446" t="n">
         <v>11</v>
@@ -12051,7 +12051,7 @@
         <v>8</v>
       </c>
       <c r="D447" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E447" t="n">
         <v>8</v>
@@ -12129,10 +12129,10 @@
         <v>2</v>
       </c>
       <c r="D450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F450" t="n">
         <v>2</v>
@@ -12152,7 +12152,7 @@
         <v>10</v>
       </c>
       <c r="C451" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D451" t="n">
         <v>12</v>
@@ -12187,7 +12187,7 @@
         <v>9</v>
       </c>
       <c r="F452" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G452" t="n">
         <v>9</v>
@@ -12230,16 +12230,16 @@
         <v>13</v>
       </c>
       <c r="C454" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D454" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E454" t="n">
         <v>11</v>
       </c>
       <c r="F454" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G454" t="n">
         <v>10</v>
@@ -12256,7 +12256,7 @@
         <v>17</v>
       </c>
       <c r="C455" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D455" t="n">
         <v>12</v>
@@ -12285,7 +12285,7 @@
         <v>10</v>
       </c>
       <c r="D456" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E456" t="n">
         <v>10</v>
@@ -12308,10 +12308,10 @@
         <v>9</v>
       </c>
       <c r="C457" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D457" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E457" t="n">
         <v>11</v>
@@ -12334,7 +12334,7 @@
         <v>13</v>
       </c>
       <c r="C458" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D458" t="n">
         <v>12</v>
@@ -12360,10 +12360,10 @@
         <v>16</v>
       </c>
       <c r="C459" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D459" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E459" t="n">
         <v>10</v>
@@ -12395,7 +12395,7 @@
         <v>9</v>
       </c>
       <c r="F460" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G460" t="n">
         <v>6</v>
@@ -12441,7 +12441,7 @@
         <v>6</v>
       </c>
       <c r="D462" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E462" t="n">
         <v>8</v>
@@ -12470,10 +12470,10 @@
         <v>5</v>
       </c>
       <c r="E463" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F463" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G463" t="n">
         <v>5</v>
@@ -12519,7 +12519,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D465" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E465" t="n">
         <v>6</v>
@@ -12597,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="D468" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E468" t="n">
         <v>8</v>
@@ -12623,13 +12623,13 @@
         <v>11</v>
       </c>
       <c r="D469" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E469" t="n">
         <v>11</v>
       </c>
       <c r="F469" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G469" t="n">
         <v>11</v>
@@ -12646,16 +12646,16 @@
         <v>15</v>
       </c>
       <c r="C470" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D470" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E470" t="n">
         <v>10</v>
       </c>
       <c r="F470" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G470" t="n">
         <v>9</v>
@@ -12785,7 +12785,7 @@
         <v>11</v>
       </c>
       <c r="F475" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G475" t="n">
         <v>10</v>
@@ -12802,7 +12802,7 @@
         <v>8</v>
       </c>
       <c r="C476" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D476" t="n">
         <v>12</v>
@@ -12811,7 +12811,7 @@
         <v>11</v>
       </c>
       <c r="F476" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G476" t="n">
         <v>11</v>
@@ -12831,13 +12831,13 @@
         <v>11</v>
       </c>
       <c r="D477" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E477" t="n">
         <v>11</v>
       </c>
       <c r="F477" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G477" t="n">
         <v>11</v>
@@ -12854,16 +12854,16 @@
         <v>9</v>
       </c>
       <c r="C478" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D478" t="n">
         <v>9</v>
       </c>
       <c r="E478" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F478" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G478" t="n">
         <v>8</v>
@@ -12883,7 +12883,7 @@
         <v>9</v>
       </c>
       <c r="D479" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E479" t="n">
         <v>9</v>
@@ -12906,7 +12906,7 @@
         <v>15</v>
       </c>
       <c r="C480" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D480" t="n">
         <v>11</v>
@@ -12987,7 +12987,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D483" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E483" t="n">
         <v>6</v>
@@ -13019,7 +13019,7 @@
         <v>11</v>
       </c>
       <c r="F484" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G484" t="n">
         <v>11</v>
@@ -13039,7 +13039,7 @@
         <v>8</v>
       </c>
       <c r="D485" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E485" t="n">
         <v>9</v>
@@ -13091,7 +13091,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D487" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E487" t="n">
         <v>6</v>
@@ -13117,13 +13117,13 @@
         <v>12</v>
       </c>
       <c r="D488" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E488" t="n">
         <v>11</v>
       </c>
       <c r="F488" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G488" t="n">
         <v>11</v>
@@ -13143,7 +13143,7 @@
         <v>10</v>
       </c>
       <c r="D489" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E489" t="n">
         <v>10</v>
@@ -13195,7 +13195,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D491" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E491" t="n">
         <v>8</v>
@@ -13221,13 +13221,13 @@
         <v>4</v>
       </c>
       <c r="D492" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E492" t="n">
         <v>6</v>
       </c>
       <c r="F492" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G492" t="n">
         <v>5</v>
@@ -13247,10 +13247,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D493" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E493" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="F493" t="n">
         <v>6</v>
@@ -13273,13 +13273,13 @@
         <v>12</v>
       </c>
       <c r="D494" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E494" t="n">
         <v>11</v>
       </c>
       <c r="F494" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G494" t="n">
         <v>11</v>
@@ -13328,10 +13328,10 @@
         <v>9</v>
       </c>
       <c r="E496" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F496" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G496" t="n">
         <v>9</v>
@@ -13351,7 +13351,7 @@
         <v>10</v>
       </c>
       <c r="D497" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E497" t="n">
         <v>11</v>
@@ -13403,13 +13403,13 @@
         <v>5</v>
       </c>
       <c r="D499" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E499" t="n">
         <v>5</v>
       </c>
       <c r="F499" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G499" t="n">
         <v>7.000000000000001</v>
@@ -13426,7 +13426,7 @@
         <v>13</v>
       </c>
       <c r="C500" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D500" t="n">
         <v>12</v>
@@ -13467,7 +13467,7 @@
         <v>11</v>
       </c>
       <c r="H501" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="502">
@@ -13507,10 +13507,10 @@
         <v>2</v>
       </c>
       <c r="D503" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E503" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F503" t="n">
         <v>2</v>
@@ -13539,7 +13539,7 @@
         <v>5</v>
       </c>
       <c r="F504" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G504" t="n">
         <v>7.000000000000001</v>
@@ -13562,10 +13562,10 @@
         <v>5</v>
       </c>
       <c r="E505" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F505" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G505" t="n">
         <v>5</v>
@@ -13643,7 +13643,7 @@
         <v>3</v>
       </c>
       <c r="F508" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G508" t="n">
         <v>3</v>
@@ -13663,7 +13663,7 @@
         <v>3</v>
       </c>
       <c r="D509" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E509" t="n">
         <v>3</v>
@@ -13675,7 +13675,7 @@
         <v>4</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="510">
@@ -13686,7 +13686,7 @@
         <v>11</v>
       </c>
       <c r="C510" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="D510" t="n">
         <v>9</v>
@@ -13695,7 +13695,7 @@
         <v>10</v>
       </c>
       <c r="F510" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G510" t="n">
         <v>10</v>
@@ -13715,13 +13715,13 @@
         <v>12</v>
       </c>
       <c r="D511" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E511" t="n">
         <v>11</v>
       </c>
       <c r="F511" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G511" t="n">
         <v>11</v>
@@ -13747,7 +13747,7 @@
         <v>8</v>
       </c>
       <c r="F512" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G512" t="n">
         <v>6</v>
@@ -13770,10 +13770,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="E513" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F513" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G513" t="n">
         <v>7.000000000000001</v>
@@ -13816,7 +13816,7 @@
         <v>17</v>
       </c>
       <c r="C515" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D515" t="n">
         <v>12</v>
@@ -13842,7 +13842,7 @@
         <v>13</v>
       </c>
       <c r="C516" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D516" t="n">
         <v>12</v>
@@ -13871,7 +13871,7 @@
         <v>6</v>
       </c>
       <c r="D517" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E517" t="n">
         <v>7.000000000000001</v>
@@ -13880,7 +13880,7 @@
         <v>6</v>
       </c>
       <c r="G517" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H517" t="n">
         <v>8</v>
@@ -13897,7 +13897,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D518" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E518" t="n">
         <v>10</v>
@@ -13926,7 +13926,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="E519" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F519" t="n">
         <v>6</v>
@@ -13981,7 +13981,7 @@
         <v>9</v>
       </c>
       <c r="F521" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G521" t="n">
         <v>8</v>
@@ -14033,7 +14033,7 @@
         <v>8</v>
       </c>
       <c r="F523" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G523" t="n">
         <v>7.000000000000001</v>
@@ -14050,7 +14050,7 @@
         <v>0</v>
       </c>
       <c r="C524" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D524" t="n">
         <v>11</v>
@@ -14102,7 +14102,7 @@
         <v>19</v>
       </c>
       <c r="C526" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D526" t="n">
         <v>12</v>
@@ -14137,7 +14137,7 @@
         <v>3</v>
       </c>
       <c r="F527" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G527" t="n">
         <v>4</v>
@@ -14154,7 +14154,7 @@
         <v>13</v>
       </c>
       <c r="C528" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D528" t="n">
         <v>12</v>
@@ -14209,13 +14209,13 @@
         <v>6</v>
       </c>
       <c r="D530" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E530" t="n">
         <v>5</v>
       </c>
       <c r="F530" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G530" t="n">
         <v>8</v>
@@ -14232,16 +14232,16 @@
         <v>9</v>
       </c>
       <c r="C531" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D531" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E531" t="n">
         <v>6</v>
       </c>
       <c r="F531" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G531" t="n">
         <v>8</v>
@@ -14339,7 +14339,7 @@
         <v>6</v>
       </c>
       <c r="D535" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E535" t="n">
         <v>7.000000000000001</v>
@@ -14371,7 +14371,7 @@
         <v>3</v>
       </c>
       <c r="F536" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G536" t="n">
         <v>4</v>
@@ -14417,7 +14417,7 @@
         <v>2</v>
       </c>
       <c r="D538" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E538" t="n">
         <v>2</v>
@@ -14449,7 +14449,7 @@
         <v>11</v>
       </c>
       <c r="F539" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G539" t="n">
         <v>11</v>
@@ -14495,7 +14495,7 @@
         <v>10</v>
       </c>
       <c r="D541" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E541" t="n">
         <v>8</v>
@@ -14521,7 +14521,7 @@
         <v>9</v>
       </c>
       <c r="D542" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E542" t="n">
         <v>10</v>
@@ -14544,7 +14544,7 @@
         <v>4</v>
       </c>
       <c r="C543" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="D543" t="n">
         <v>9</v>
@@ -14553,7 +14553,7 @@
         <v>9</v>
       </c>
       <c r="F543" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G543" t="n">
         <v>10</v>
@@ -14599,7 +14599,7 @@
         <v>10</v>
       </c>
       <c r="D545" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E545" t="n">
         <v>10</v>
@@ -14622,7 +14622,7 @@
         <v>9</v>
       </c>
       <c r="C546" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D546" t="n">
         <v>9</v>
@@ -14631,7 +14631,7 @@
         <v>10</v>
       </c>
       <c r="F546" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G546" t="n">
         <v>9</v>
@@ -14683,7 +14683,7 @@
         <v>11</v>
       </c>
       <c r="F548" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G548" t="n">
         <v>10</v>
@@ -14703,13 +14703,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D549" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E549" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F549" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G549" t="n">
         <v>7.000000000000001</v>
@@ -14816,7 +14816,7 @@
         <v>12</v>
       </c>
       <c r="G553" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H553" t="n">
         <v>12</v>
@@ -14830,7 +14830,7 @@
         <v>8</v>
       </c>
       <c r="C554" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D554" t="n">
         <v>10</v>
@@ -14839,7 +14839,7 @@
         <v>10</v>
       </c>
       <c r="F554" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G554" t="n">
         <v>9</v>
@@ -14885,13 +14885,13 @@
         <v>10</v>
       </c>
       <c r="D556" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E556" t="n">
         <v>10</v>
       </c>
       <c r="F556" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G556" t="n">
         <v>10</v>
@@ -14937,7 +14937,7 @@
         <v>8</v>
       </c>
       <c r="D558" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E558" t="n">
         <v>5</v>
@@ -14963,10 +14963,10 @@
         <v>9</v>
       </c>
       <c r="D559" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E559" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="F559" t="n">
         <v>6</v>
@@ -14992,10 +14992,10 @@
         <v>9</v>
       </c>
       <c r="E560" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F560" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G560" t="n">
         <v>10</v>
@@ -15015,13 +15015,13 @@
         <v>6</v>
       </c>
       <c r="D561" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E561" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F561" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G561" t="n">
         <v>7.000000000000001</v>
@@ -15044,10 +15044,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="E562" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F562" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G562" t="n">
         <v>7.000000000000001</v>
@@ -15090,7 +15090,7 @@
         <v>18</v>
       </c>
       <c r="C564" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D564" t="n">
         <v>12</v>
@@ -15119,13 +15119,13 @@
         <v>5</v>
       </c>
       <c r="D565" t="n">
+        <v>3</v>
+      </c>
+      <c r="E565" t="n">
         <v>4</v>
       </c>
-      <c r="E565" t="n">
-        <v>3</v>
-      </c>
       <c r="F565" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G565" t="n">
         <v>4</v>
@@ -15177,7 +15177,7 @@
         <v>9</v>
       </c>
       <c r="F567" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G567" t="n">
         <v>9</v>
@@ -15197,7 +15197,7 @@
         <v>8</v>
       </c>
       <c r="D568" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E568" t="n">
         <v>8</v>
@@ -15229,7 +15229,7 @@
         <v>10</v>
       </c>
       <c r="F569" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G569" t="n">
         <v>10</v>
@@ -15246,7 +15246,7 @@
         <v>16</v>
       </c>
       <c r="C570" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D570" t="n">
         <v>12</v>
@@ -15301,7 +15301,7 @@
         <v>2</v>
       </c>
       <c r="D572" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E572" t="n">
         <v>2</v>
@@ -15327,13 +15327,13 @@
         <v>5</v>
       </c>
       <c r="D573" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E573" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F573" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G573" t="n">
         <v>7.000000000000001</v>
@@ -15350,7 +15350,7 @@
         <v>11</v>
       </c>
       <c r="C574" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D574" t="n">
         <v>6</v>
@@ -15379,7 +15379,7 @@
         <v>6</v>
       </c>
       <c r="D575" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E575" t="n">
         <v>7.000000000000001</v>
@@ -15402,7 +15402,7 @@
         <v>12</v>
       </c>
       <c r="C576" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D576" t="n">
         <v>6</v>
@@ -15431,7 +15431,7 @@
         <v>5</v>
       </c>
       <c r="D577" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E577" t="n">
         <v>7.000000000000001</v>
@@ -15489,7 +15489,7 @@
         <v>3</v>
       </c>
       <c r="F579" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G579" t="n">
         <v>3</v>
@@ -15509,7 +15509,7 @@
         <v>3</v>
       </c>
       <c r="D580" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E580" t="n">
         <v>2</v>
@@ -15535,13 +15535,13 @@
         <v>12</v>
       </c>
       <c r="D581" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E581" t="n">
         <v>11</v>
       </c>
       <c r="F581" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G581" t="n">
         <v>11</v>
@@ -15558,7 +15558,7 @@
         <v>15</v>
       </c>
       <c r="C582" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D582" t="n">
         <v>12</v>
@@ -15587,7 +15587,7 @@
         <v>11</v>
       </c>
       <c r="D583" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E583" t="n">
         <v>11</v>
@@ -15610,7 +15610,7 @@
         <v>9</v>
       </c>
       <c r="C584" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D584" t="n">
         <v>10</v>
@@ -15645,7 +15645,7 @@
         <v>3</v>
       </c>
       <c r="F585" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G585" t="n">
         <v>4</v>
@@ -15740,7 +15740,7 @@
         <v>13</v>
       </c>
       <c r="C589" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D589" t="n">
         <v>12</v>
@@ -15827,7 +15827,7 @@
         <v>11</v>
       </c>
       <c r="F592" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G592" t="n">
         <v>10</v>
@@ -15859,7 +15859,7 @@
         <v>10</v>
       </c>
       <c r="H593" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="594">
@@ -15899,13 +15899,13 @@
         <v>10</v>
       </c>
       <c r="D595" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E595" t="n">
         <v>11</v>
       </c>
       <c r="F595" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G595" t="n">
         <v>10</v>
@@ -15931,7 +15931,7 @@
         <v>5</v>
       </c>
       <c r="F596" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G596" t="n">
         <v>7.000000000000001</v>
@@ -15951,13 +15951,13 @@
         <v>9</v>
       </c>
       <c r="D597" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E597" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F597" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G597" t="n">
         <v>9</v>
@@ -15977,13 +15977,13 @@
         <v>11</v>
       </c>
       <c r="D598" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E598" t="n">
         <v>11</v>
       </c>
       <c r="F598" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G598" t="n">
         <v>11</v>
@@ -16055,13 +16055,13 @@
         <v>6</v>
       </c>
       <c r="D601" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E601" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F601" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G601" t="n">
         <v>8</v>
@@ -16145,7 +16145,7 @@
         <v>11</v>
       </c>
       <c r="H604" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="605">
@@ -16185,7 +16185,7 @@
         <v>5</v>
       </c>
       <c r="D606" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E606" t="n">
         <v>7.000000000000001</v>
@@ -16208,7 +16208,7 @@
         <v>4</v>
       </c>
       <c r="C607" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D607" t="n">
         <v>11</v>
@@ -16289,7 +16289,7 @@
         <v>2</v>
       </c>
       <c r="D610" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E610" t="n">
         <v>2</v>
@@ -16321,7 +16321,7 @@
         <v>2</v>
       </c>
       <c r="F611" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G611" t="n">
         <v>3</v>
@@ -16338,7 +16338,7 @@
         <v>13</v>
       </c>
       <c r="C612" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D612" t="n">
         <v>9</v>
@@ -16347,7 +16347,7 @@
         <v>10</v>
       </c>
       <c r="F612" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G612" t="n">
         <v>9</v>
@@ -16373,7 +16373,7 @@
         <v>10</v>
       </c>
       <c r="F613" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G613" t="n">
         <v>7.000000000000001</v>
@@ -16393,7 +16393,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D614" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E614" t="n">
         <v>6</v>
@@ -16471,13 +16471,13 @@
         <v>10</v>
       </c>
       <c r="D617" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E617" t="n">
         <v>11</v>
       </c>
       <c r="F617" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G617" t="n">
         <v>10</v>
@@ -16503,7 +16503,7 @@
         <v>9</v>
       </c>
       <c r="F618" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G618" t="n">
         <v>9</v>
@@ -16526,7 +16526,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="E619" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F619" t="n">
         <v>6</v>
@@ -16572,7 +16572,7 @@
         <v>12</v>
       </c>
       <c r="C621" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D621" t="n">
         <v>12</v>
@@ -16581,7 +16581,7 @@
         <v>11</v>
       </c>
       <c r="F621" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G621" t="n">
         <v>11</v>
@@ -16624,7 +16624,7 @@
         <v>15</v>
       </c>
       <c r="C623" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D623" t="n">
         <v>12</v>
@@ -16633,7 +16633,7 @@
         <v>11</v>
       </c>
       <c r="F623" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G623" t="n">
         <v>11</v>
@@ -16650,7 +16650,7 @@
         <v>9</v>
       </c>
       <c r="C624" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D624" t="n">
         <v>12</v>
@@ -16685,7 +16685,7 @@
         <v>3</v>
       </c>
       <c r="F625" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G625" t="n">
         <v>4</v>
@@ -16705,7 +16705,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D626" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E626" t="n">
         <v>8</v>
@@ -16731,7 +16731,7 @@
         <v>10</v>
       </c>
       <c r="D627" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E627" t="n">
         <v>10</v>
@@ -16757,7 +16757,7 @@
         <v>6</v>
       </c>
       <c r="D628" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E628" t="n">
         <v>7.000000000000001</v>
@@ -16835,7 +16835,7 @@
         <v>9</v>
       </c>
       <c r="D631" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E631" t="n">
         <v>9</v>
@@ -16936,10 +16936,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="C635" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="D635" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E635" t="n">
         <v>10</v>
@@ -17003,7 +17003,7 @@
         <v>11</v>
       </c>
       <c r="H637" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="638">
@@ -17020,7 +17020,7 @@
         <v>10</v>
       </c>
       <c r="E638" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F638" t="n">
         <v>10</v>
@@ -17043,7 +17043,7 @@
         <v>10</v>
       </c>
       <c r="D639" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E639" t="n">
         <v>8</v>
@@ -17066,7 +17066,7 @@
         <v>18</v>
       </c>
       <c r="C640" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D640" t="n">
         <v>12</v>
@@ -17101,7 +17101,7 @@
         <v>5</v>
       </c>
       <c r="F641" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G641" t="n">
         <v>6</v>
@@ -17170,7 +17170,7 @@
         <v>10</v>
       </c>
       <c r="C644" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D644" t="n">
         <v>12</v>
@@ -17196,7 +17196,7 @@
         <v>19</v>
       </c>
       <c r="C645" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D645" t="n">
         <v>12</v>
@@ -17222,7 +17222,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="C646" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D646" t="n">
         <v>12</v>
@@ -17257,7 +17257,7 @@
         <v>8</v>
       </c>
       <c r="F647" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G647" t="n">
         <v>8</v>
@@ -17277,7 +17277,7 @@
         <v>8</v>
       </c>
       <c r="D648" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E648" t="n">
         <v>8</v>
@@ -17326,7 +17326,7 @@
         <v>15</v>
       </c>
       <c r="C650" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D650" t="n">
         <v>12</v>
@@ -17352,7 +17352,7 @@
         <v>12</v>
       </c>
       <c r="C651" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D651" t="n">
         <v>12</v>
@@ -17384,7 +17384,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="E652" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F652" t="n">
         <v>6</v>
@@ -17413,7 +17413,7 @@
         <v>5</v>
       </c>
       <c r="F653" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G653" t="n">
         <v>6</v>
@@ -17485,7 +17485,7 @@
         <v>8</v>
       </c>
       <c r="D656" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E656" t="n">
         <v>8</v>
@@ -17517,7 +17517,7 @@
         <v>10</v>
       </c>
       <c r="F657" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G657" t="n">
         <v>8</v>
@@ -17537,13 +17537,13 @@
         <v>10</v>
       </c>
       <c r="D658" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E658" t="n">
         <v>11</v>
       </c>
       <c r="F658" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G658" t="n">
         <v>10</v>
@@ -17563,7 +17563,7 @@
         <v>9</v>
       </c>
       <c r="D659" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E659" t="n">
         <v>9</v>
@@ -17586,10 +17586,10 @@
         <v>4</v>
       </c>
       <c r="C660" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D660" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E660" t="n">
         <v>10</v>
@@ -17696,10 +17696,10 @@
         <v>6</v>
       </c>
       <c r="E664" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="F664" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G664" t="n">
         <v>6</v>
@@ -17719,13 +17719,13 @@
         <v>10</v>
       </c>
       <c r="D665" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E665" t="n">
         <v>10</v>
       </c>
       <c r="F665" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G665" t="n">
         <v>9</v>
@@ -17745,13 +17745,13 @@
         <v>9</v>
       </c>
       <c r="D666" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E666" t="n">
         <v>11</v>
       </c>
       <c r="F666" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G666" t="n">
         <v>10</v>
@@ -17820,7 +17820,7 @@
         <v>6</v>
       </c>
       <c r="C669" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D669" t="n">
         <v>12</v>
@@ -17849,13 +17849,13 @@
         <v>2</v>
       </c>
       <c r="D670" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E670" t="n">
         <v>1</v>
       </c>
       <c r="F670" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G670" t="n">
         <v>2</v>
@@ -17907,7 +17907,7 @@
         <v>9</v>
       </c>
       <c r="F672" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G672" t="n">
         <v>9</v>
@@ -17924,7 +17924,7 @@
         <v>16</v>
       </c>
       <c r="C673" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D673" t="n">
         <v>12</v>
@@ -17950,7 +17950,7 @@
         <v>10</v>
       </c>
       <c r="C674" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D674" t="n">
         <v>12</v>
@@ -17976,7 +17976,7 @@
         <v>10</v>
       </c>
       <c r="C675" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="D675" t="n">
         <v>9</v>
@@ -18005,7 +18005,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D676" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E676" t="n">
         <v>6</v>
@@ -18031,7 +18031,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D677" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E677" t="n">
         <v>6</v>
@@ -18083,7 +18083,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D679" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E679" t="n">
         <v>6</v>
@@ -18184,7 +18184,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="C683" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D683" t="n">
         <v>11</v>
@@ -18213,13 +18213,13 @@
         <v>12</v>
       </c>
       <c r="D684" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E684" t="n">
         <v>11</v>
       </c>
       <c r="F684" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G684" t="n">
         <v>11</v>
@@ -18239,7 +18239,7 @@
         <v>2</v>
       </c>
       <c r="D685" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E685" t="n">
         <v>2</v>
@@ -18288,7 +18288,7 @@
         <v>14</v>
       </c>
       <c r="C687" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D687" t="n">
         <v>12</v>
@@ -18418,7 +18418,7 @@
         <v>18</v>
       </c>
       <c r="C692" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D692" t="n">
         <v>12</v>
@@ -18470,7 +18470,7 @@
         <v>14</v>
       </c>
       <c r="C694" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D694" t="n">
         <v>12</v>
@@ -18496,7 +18496,7 @@
         <v>9</v>
       </c>
       <c r="C695" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D695" t="n">
         <v>12</v>
@@ -18525,10 +18525,10 @@
         <v>2</v>
       </c>
       <c r="D696" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E696" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F696" t="n">
         <v>2</v>
@@ -18609,7 +18609,7 @@
         <v>9</v>
       </c>
       <c r="F699" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G699" t="n">
         <v>10</v>
@@ -18626,7 +18626,7 @@
         <v>16</v>
       </c>
       <c r="C700" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D700" t="n">
         <v>12</v>
@@ -18655,7 +18655,7 @@
         <v>11</v>
       </c>
       <c r="D701" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E701" t="n">
         <v>9</v>
@@ -18759,10 +18759,10 @@
         <v>10</v>
       </c>
       <c r="D705" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E705" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F705" t="n">
         <v>11</v>
@@ -18808,7 +18808,7 @@
         <v>12</v>
       </c>
       <c r="C707" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D707" t="n">
         <v>12</v>
@@ -18895,7 +18895,7 @@
         <v>5</v>
       </c>
       <c r="F710" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G710" t="n">
         <v>6</v>
@@ -18993,13 +18993,13 @@
         <v>10</v>
       </c>
       <c r="D714" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E714" t="n">
         <v>11</v>
       </c>
       <c r="F714" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G714" t="n">
         <v>10</v>
@@ -19019,13 +19019,13 @@
         <v>4</v>
       </c>
       <c r="D715" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E715" t="n">
         <v>4</v>
       </c>
       <c r="F715" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G715" t="n">
         <v>5</v>
@@ -19051,7 +19051,7 @@
         <v>9</v>
       </c>
       <c r="F716" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G716" t="n">
         <v>9</v>
@@ -19077,7 +19077,7 @@
         <v>4</v>
       </c>
       <c r="F717" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G717" t="n">
         <v>5</v>
@@ -19094,16 +19094,16 @@
         <v>8</v>
       </c>
       <c r="C718" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D718" t="n">
         <v>10</v>
       </c>
       <c r="E718" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F718" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G718" t="n">
         <v>10</v>
@@ -19123,7 +19123,7 @@
         <v>8</v>
       </c>
       <c r="D719" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E719" t="n">
         <v>9</v>
@@ -19175,13 +19175,13 @@
         <v>5</v>
       </c>
       <c r="D721" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E721" t="n">
         <v>4</v>
       </c>
       <c r="F721" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G721" t="n">
         <v>5</v>
@@ -19198,7 +19198,7 @@
         <v>13</v>
       </c>
       <c r="C722" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D722" t="n">
         <v>9</v>
@@ -19282,7 +19282,7 @@
         <v>10</v>
       </c>
       <c r="E725" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F725" t="n">
         <v>10</v>
@@ -19302,7 +19302,7 @@
         <v>14</v>
       </c>
       <c r="C726" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D726" t="n">
         <v>11</v>
@@ -19328,7 +19328,7 @@
         <v>15</v>
       </c>
       <c r="C727" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D727" t="n">
         <v>12</v>
@@ -19363,7 +19363,7 @@
         <v>11</v>
       </c>
       <c r="F728" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G728" t="n">
         <v>11</v>
@@ -19380,7 +19380,7 @@
         <v>18</v>
       </c>
       <c r="C729" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D729" t="n">
         <v>12</v>
@@ -19406,16 +19406,16 @@
         <v>10</v>
       </c>
       <c r="C730" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D730" t="n">
         <v>10</v>
       </c>
       <c r="E730" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F730" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G730" t="n">
         <v>11</v>
@@ -19432,10 +19432,10 @@
         <v>8</v>
       </c>
       <c r="C731" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="D731" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E731" t="n">
         <v>6</v>
@@ -19510,7 +19510,7 @@
         <v>13</v>
       </c>
       <c r="C734" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D734" t="n">
         <v>12</v>
@@ -19539,13 +19539,13 @@
         <v>4</v>
       </c>
       <c r="D735" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E735" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F735" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G735" t="n">
         <v>6</v>
@@ -19568,10 +19568,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="E736" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F736" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G736" t="n">
         <v>7.000000000000001</v>
@@ -19597,7 +19597,7 @@
         <v>4</v>
       </c>
       <c r="F737" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G737" t="n">
         <v>5</v>
@@ -19643,10 +19643,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D739" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E739" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="F739" t="n">
         <v>6</v>
@@ -19669,7 +19669,7 @@
         <v>6</v>
       </c>
       <c r="D740" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E740" t="n">
         <v>7.000000000000001</v>
@@ -19692,7 +19692,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="C741" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D741" t="n">
         <v>12</v>
@@ -19796,7 +19796,7 @@
         <v>17</v>
       </c>
       <c r="C745" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D745" t="n">
         <v>12</v>
@@ -19822,16 +19822,16 @@
         <v>0</v>
       </c>
       <c r="C746" t="n">
+        <v>1</v>
+      </c>
+      <c r="D746" t="n">
         <v>2</v>
-      </c>
-      <c r="D746" t="n">
-        <v>1</v>
       </c>
       <c r="E746" t="n">
         <v>1</v>
       </c>
       <c r="F746" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G746" t="n">
         <v>2</v>
@@ -19851,13 +19851,13 @@
         <v>10</v>
       </c>
       <c r="D747" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E747" t="n">
         <v>10</v>
       </c>
       <c r="F747" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G747" t="n">
         <v>10</v>
@@ -19880,10 +19880,10 @@
         <v>10</v>
       </c>
       <c r="E748" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F748" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G748" t="n">
         <v>9</v>
@@ -19900,10 +19900,10 @@
         <v>10</v>
       </c>
       <c r="C749" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="D749" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E749" t="n">
         <v>10</v>
@@ -20004,7 +20004,7 @@
         <v>6</v>
       </c>
       <c r="C753" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D753" t="n">
         <v>12</v>
@@ -20056,7 +20056,7 @@
         <v>12</v>
       </c>
       <c r="C755" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D755" t="n">
         <v>12</v>
@@ -20117,7 +20117,7 @@
         <v>3</v>
       </c>
       <c r="F757" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G757" t="n">
         <v>4</v>
@@ -20134,10 +20134,10 @@
         <v>14</v>
       </c>
       <c r="C758" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="D758" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E758" t="n">
         <v>10</v>
@@ -20169,7 +20169,7 @@
         <v>4</v>
       </c>
       <c r="F759" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G759" t="n">
         <v>5</v>
@@ -20215,13 +20215,13 @@
         <v>10</v>
       </c>
       <c r="D761" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E761" t="n">
         <v>10</v>
       </c>
       <c r="F761" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G761" t="n">
         <v>10</v>
@@ -20244,7 +20244,7 @@
         <v>9</v>
       </c>
       <c r="E762" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F762" t="n">
         <v>8</v>
@@ -20293,10 +20293,10 @@
         <v>9</v>
       </c>
       <c r="D764" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E764" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F764" t="n">
         <v>11</v>
@@ -20429,7 +20429,7 @@
         <v>11</v>
       </c>
       <c r="F769" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G769" t="n">
         <v>10</v>
@@ -20455,7 +20455,7 @@
         <v>9</v>
       </c>
       <c r="F770" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G770" t="n">
         <v>9</v>
@@ -20498,7 +20498,7 @@
         <v>8</v>
       </c>
       <c r="C772" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D772" t="n">
         <v>12</v>
@@ -20533,7 +20533,7 @@
         <v>11</v>
       </c>
       <c r="F773" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G773" t="n">
         <v>10</v>
@@ -20553,10 +20553,10 @@
         <v>9</v>
       </c>
       <c r="D774" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E774" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F774" t="n">
         <v>11</v>
@@ -20579,7 +20579,7 @@
         <v>2</v>
       </c>
       <c r="D775" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E775" t="n">
         <v>2</v>
@@ -20631,7 +20631,7 @@
         <v>2</v>
       </c>
       <c r="D777" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E777" t="n">
         <v>2</v>
@@ -20689,7 +20689,7 @@
         <v>11</v>
       </c>
       <c r="F779" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G779" t="n">
         <v>10</v>
@@ -20709,13 +20709,13 @@
         <v>6</v>
       </c>
       <c r="D780" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E780" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F780" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G780" t="n">
         <v>7.000000000000001</v>
@@ -20735,13 +20735,13 @@
         <v>5</v>
       </c>
       <c r="D781" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E781" t="n">
         <v>4</v>
       </c>
       <c r="F781" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G781" t="n">
         <v>5</v>
@@ -20758,10 +20758,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="C782" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="D782" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E782" t="n">
         <v>10</v>
@@ -20790,7 +20790,7 @@
         <v>10</v>
       </c>
       <c r="E783" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F783" t="n">
         <v>10</v>
@@ -20888,7 +20888,7 @@
         <v>17</v>
       </c>
       <c r="C787" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D787" t="n">
         <v>12</v>
@@ -20969,13 +20969,13 @@
         <v>1</v>
       </c>
       <c r="D790" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E790" t="n">
         <v>5</v>
       </c>
       <c r="F790" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G790" t="n">
         <v>4</v>
@@ -21021,7 +21021,7 @@
         <v>10</v>
       </c>
       <c r="D792" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E792" t="n">
         <v>10</v>
@@ -21053,7 +21053,7 @@
         <v>10</v>
       </c>
       <c r="F793" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G793" t="n">
         <v>8</v>
@@ -21070,7 +21070,7 @@
         <v>16</v>
       </c>
       <c r="C794" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D794" t="n">
         <v>12</v>
@@ -21096,7 +21096,7 @@
         <v>9</v>
       </c>
       <c r="C795" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D795" t="n">
         <v>11</v>
@@ -21148,16 +21148,16 @@
         <v>9</v>
       </c>
       <c r="C797" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D797" t="n">
         <v>10</v>
       </c>
       <c r="E797" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F797" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G797" t="n">
         <v>11</v>
@@ -21177,7 +21177,7 @@
         <v>11</v>
       </c>
       <c r="D798" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E798" t="n">
         <v>9</v>
@@ -21203,7 +21203,7 @@
         <v>9</v>
       </c>
       <c r="D799" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E799" t="n">
         <v>9</v>
@@ -21333,7 +21333,7 @@
         <v>9</v>
       </c>
       <c r="D804" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E804" t="n">
         <v>9</v>
@@ -21385,7 +21385,7 @@
         <v>9</v>
       </c>
       <c r="D806" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E806" t="n">
         <v>10</v>
@@ -21414,7 +21414,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="E807" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F807" t="n">
         <v>6</v>
@@ -21437,7 +21437,7 @@
         <v>6</v>
       </c>
       <c r="D808" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E808" t="n">
         <v>6</v>
@@ -21463,7 +21463,7 @@
         <v>6</v>
       </c>
       <c r="D809" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E809" t="n">
         <v>7.000000000000001</v>
@@ -21489,13 +21489,13 @@
         <v>9</v>
       </c>
       <c r="D810" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E810" t="n">
         <v>11</v>
       </c>
       <c r="F810" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G810" t="n">
         <v>10</v>
@@ -21564,7 +21564,7 @@
         <v>9</v>
       </c>
       <c r="C813" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D813" t="n">
         <v>12</v>
@@ -21599,7 +21599,7 @@
         <v>11</v>
       </c>
       <c r="F814" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G814" t="n">
         <v>11</v>
@@ -21619,7 +21619,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D815" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E815" t="n">
         <v>6</v>
@@ -21645,7 +21645,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D816" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E816" t="n">
         <v>6</v>
@@ -21668,7 +21668,7 @@
         <v>13</v>
       </c>
       <c r="C817" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="D817" t="n">
         <v>6</v>
@@ -21720,7 +21720,7 @@
         <v>16</v>
       </c>
       <c r="C819" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D819" t="n">
         <v>12</v>
@@ -21801,13 +21801,13 @@
         <v>11</v>
       </c>
       <c r="D822" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E822" t="n">
         <v>9</v>
       </c>
       <c r="F822" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G822" t="n">
         <v>9</v>
@@ -21827,13 +21827,13 @@
         <v>10</v>
       </c>
       <c r="D823" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E823" t="n">
         <v>11</v>
       </c>
       <c r="F823" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G823" t="n">
         <v>10</v>
@@ -21931,10 +21931,10 @@
         <v>10</v>
       </c>
       <c r="D827" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E827" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F827" t="n">
         <v>10</v>
@@ -21963,7 +21963,7 @@
         <v>10</v>
       </c>
       <c r="F828" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G828" t="n">
         <v>10</v>
@@ -21986,10 +21986,10 @@
         <v>9</v>
       </c>
       <c r="E829" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F829" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G829" t="n">
         <v>9</v>
@@ -22015,7 +22015,7 @@
         <v>11</v>
       </c>
       <c r="F830" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G830" t="n">
         <v>10</v>
@@ -22058,7 +22058,7 @@
         <v>16</v>
       </c>
       <c r="C832" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D832" t="n">
         <v>11</v>
@@ -22087,7 +22087,7 @@
         <v>8</v>
       </c>
       <c r="D833" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E833" t="n">
         <v>9</v>
@@ -22116,13 +22116,13 @@
         <v>3</v>
       </c>
       <c r="E834" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F834" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G834" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H834" t="n">
         <v>4</v>
@@ -22188,7 +22188,7 @@
         <v>3</v>
       </c>
       <c r="C837" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D837" t="n">
         <v>12</v>
@@ -22217,13 +22217,13 @@
         <v>12</v>
       </c>
       <c r="D838" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E838" t="n">
         <v>11</v>
       </c>
       <c r="F838" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G838" t="n">
         <v>11</v>
@@ -22249,7 +22249,7 @@
         <v>3</v>
       </c>
       <c r="F839" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G839" t="n">
         <v>4</v>
@@ -22269,7 +22269,7 @@
         <v>2</v>
       </c>
       <c r="D840" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E840" t="n">
         <v>2</v>
@@ -22295,13 +22295,13 @@
         <v>5</v>
       </c>
       <c r="D841" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E841" t="n">
         <v>5</v>
       </c>
       <c r="F841" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G841" t="n">
         <v>7.000000000000001</v>
@@ -22318,10 +22318,10 @@
         <v>15</v>
       </c>
       <c r="C842" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D842" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E842" t="n">
         <v>11</v>
@@ -22347,16 +22347,16 @@
         <v>2</v>
       </c>
       <c r="D843" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E843" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F843" t="n">
         <v>2</v>
       </c>
       <c r="G843" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H843" t="n">
         <v>3</v>
@@ -22370,7 +22370,7 @@
         <v>12</v>
       </c>
       <c r="C844" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D844" t="n">
         <v>12</v>
@@ -22463,7 +22463,7 @@
         <v>11</v>
       </c>
       <c r="H847" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="848">
@@ -22474,7 +22474,7 @@
         <v>17</v>
       </c>
       <c r="C848" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D848" t="n">
         <v>12</v>
@@ -22500,7 +22500,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="C849" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D849" t="n">
         <v>12</v>
@@ -22555,7 +22555,7 @@
         <v>8</v>
       </c>
       <c r="D851" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E851" t="n">
         <v>8</v>
@@ -22587,7 +22587,7 @@
         <v>3</v>
       </c>
       <c r="F852" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G852" t="n">
         <v>4</v>
@@ -22633,7 +22633,7 @@
         <v>2</v>
       </c>
       <c r="D854" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E854" t="n">
         <v>2</v>
@@ -22682,7 +22682,7 @@
         <v>14</v>
       </c>
       <c r="C856" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D856" t="n">
         <v>12</v>
@@ -22763,13 +22763,13 @@
         <v>10</v>
       </c>
       <c r="D859" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E859" t="n">
         <v>11</v>
       </c>
       <c r="F859" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G859" t="n">
         <v>9</v>
@@ -22792,10 +22792,10 @@
         <v>5</v>
       </c>
       <c r="E860" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F860" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G860" t="n">
         <v>5</v>
@@ -22815,13 +22815,13 @@
         <v>5</v>
       </c>
       <c r="D861" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E861" t="n">
         <v>4</v>
       </c>
       <c r="F861" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G861" t="n">
         <v>5</v>
@@ -22867,7 +22867,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D863" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E863" t="n">
         <v>6</v>
@@ -22890,7 +22890,7 @@
         <v>12</v>
       </c>
       <c r="C864" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D864" t="n">
         <v>12</v>
@@ -22925,7 +22925,7 @@
         <v>3</v>
       </c>
       <c r="F865" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G865" t="n">
         <v>4</v>
@@ -22951,7 +22951,7 @@
         <v>9</v>
       </c>
       <c r="F866" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G866" t="n">
         <v>9</v>
@@ -23023,13 +23023,13 @@
         <v>5</v>
       </c>
       <c r="D869" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E869" t="n">
         <v>5</v>
       </c>
       <c r="F869" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G869" t="n">
         <v>7.000000000000001</v>
@@ -23046,7 +23046,7 @@
         <v>12</v>
       </c>
       <c r="C870" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D870" t="n">
         <v>12</v>
@@ -23072,10 +23072,10 @@
         <v>17</v>
       </c>
       <c r="C871" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D871" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E871" t="n">
         <v>10</v>
@@ -23124,7 +23124,7 @@
         <v>10</v>
       </c>
       <c r="C873" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D873" t="n">
         <v>12</v>
@@ -23153,13 +23153,13 @@
         <v>6</v>
       </c>
       <c r="D874" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E874" t="n">
         <v>5</v>
       </c>
       <c r="F874" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G874" t="n">
         <v>7.000000000000001</v>
@@ -23176,16 +23176,16 @@
         <v>3</v>
       </c>
       <c r="C875" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D875" t="n">
         <v>10</v>
       </c>
       <c r="E875" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F875" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G875" t="n">
         <v>11</v>
@@ -23202,7 +23202,7 @@
         <v>4</v>
       </c>
       <c r="C876" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="D876" t="n">
         <v>9</v>
@@ -23306,10 +23306,10 @@
         <v>10</v>
       </c>
       <c r="C880" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D880" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E880" t="n">
         <v>10</v>
@@ -23335,7 +23335,7 @@
         <v>10</v>
       </c>
       <c r="D881" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E881" t="n">
         <v>10</v>
@@ -23367,7 +23367,7 @@
         <v>3</v>
       </c>
       <c r="F882" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G882" t="n">
         <v>4</v>
@@ -23387,7 +23387,7 @@
         <v>2</v>
       </c>
       <c r="D883" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E883" t="n">
         <v>2</v>
@@ -23410,7 +23410,7 @@
         <v>9</v>
       </c>
       <c r="C884" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D884" t="n">
         <v>11</v>
@@ -23445,7 +23445,7 @@
         <v>10</v>
       </c>
       <c r="F885" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G885" t="n">
         <v>8</v>
@@ -23491,7 +23491,7 @@
         <v>8</v>
       </c>
       <c r="D887" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E887" t="n">
         <v>10</v>
@@ -23514,7 +23514,7 @@
         <v>15</v>
       </c>
       <c r="C888" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D888" t="n">
         <v>12</v>
@@ -23621,13 +23621,13 @@
         <v>9</v>
       </c>
       <c r="D892" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E892" t="n">
         <v>11</v>
       </c>
       <c r="F892" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G892" t="n">
         <v>10</v>
@@ -23699,13 +23699,13 @@
         <v>4</v>
       </c>
       <c r="D895" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E895" t="n">
         <v>4</v>
       </c>
       <c r="F895" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G895" t="n">
         <v>5</v>
@@ -23725,7 +23725,7 @@
         <v>9</v>
       </c>
       <c r="D896" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E896" t="n">
         <v>10</v>
@@ -23751,7 +23751,7 @@
         <v>6</v>
       </c>
       <c r="D897" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E897" t="n">
         <v>6</v>
@@ -23809,7 +23809,7 @@
         <v>11</v>
       </c>
       <c r="F899" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G899" t="n">
         <v>11</v>
@@ -23829,13 +23829,13 @@
         <v>10</v>
       </c>
       <c r="D900" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E900" t="n">
         <v>11</v>
       </c>
       <c r="F900" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G900" t="n">
         <v>10</v>
@@ -23904,7 +23904,7 @@
         <v>16</v>
       </c>
       <c r="C903" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D903" t="n">
         <v>12</v>
@@ -23939,7 +23939,7 @@
         <v>10</v>
       </c>
       <c r="F904" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G904" t="n">
         <v>10</v>
@@ -23982,7 +23982,7 @@
         <v>0</v>
       </c>
       <c r="C906" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D906" t="n">
         <v>6</v>
@@ -23991,7 +23991,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F906" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G906" t="n">
         <v>6</v>
@@ -24008,7 +24008,7 @@
         <v>14</v>
       </c>
       <c r="C907" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D907" t="n">
         <v>12</v>
@@ -24049,7 +24049,7 @@
         <v>11</v>
       </c>
       <c r="H908" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="909">
@@ -24112,7 +24112,7 @@
         <v>16</v>
       </c>
       <c r="C911" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="D911" t="n">
         <v>9</v>
@@ -24121,7 +24121,7 @@
         <v>9</v>
       </c>
       <c r="F911" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G911" t="n">
         <v>10</v>
@@ -24190,7 +24190,7 @@
         <v>20</v>
       </c>
       <c r="C914" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D914" t="n">
         <v>12</v>
@@ -24219,7 +24219,7 @@
         <v>8</v>
       </c>
       <c r="D915" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E915" t="n">
         <v>6</v>
@@ -24271,7 +24271,7 @@
         <v>11</v>
       </c>
       <c r="D917" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E917" t="n">
         <v>9</v>
@@ -24303,7 +24303,7 @@
         <v>5</v>
       </c>
       <c r="F918" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G918" t="n">
         <v>6</v>
@@ -24329,7 +24329,7 @@
         <v>9</v>
       </c>
       <c r="F919" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G919" t="n">
         <v>9</v>
@@ -24355,7 +24355,7 @@
         <v>9</v>
       </c>
       <c r="F920" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G920" t="n">
         <v>9</v>
@@ -24381,7 +24381,7 @@
         <v>11</v>
       </c>
       <c r="F921" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G921" t="n">
         <v>10</v>
@@ -24413,7 +24413,7 @@
         <v>11</v>
       </c>
       <c r="H922" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="923">
@@ -24424,7 +24424,7 @@
         <v>16</v>
       </c>
       <c r="C923" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D923" t="n">
         <v>12</v>
@@ -24450,7 +24450,7 @@
         <v>8</v>
       </c>
       <c r="C924" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D924" t="n">
         <v>12</v>
@@ -24502,7 +24502,7 @@
         <v>11</v>
       </c>
       <c r="C926" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D926" t="n">
         <v>12</v>
@@ -24528,7 +24528,7 @@
         <v>12</v>
       </c>
       <c r="C927" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D927" t="n">
         <v>12</v>
@@ -24580,7 +24580,7 @@
         <v>11</v>
       </c>
       <c r="C929" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D929" t="n">
         <v>12</v>
@@ -24589,7 +24589,7 @@
         <v>11</v>
       </c>
       <c r="F929" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G929" t="n">
         <v>11</v>
@@ -24615,7 +24615,7 @@
         <v>11</v>
       </c>
       <c r="F930" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G930" t="n">
         <v>10</v>
@@ -24632,7 +24632,7 @@
         <v>18</v>
       </c>
       <c r="C931" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D931" t="n">
         <v>12</v>
@@ -24661,7 +24661,7 @@
         <v>8</v>
       </c>
       <c r="D932" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E932" t="n">
         <v>8</v>
@@ -24693,7 +24693,7 @@
         <v>11</v>
       </c>
       <c r="F933" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G933" t="n">
         <v>10</v>
@@ -24768,7 +24768,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="E936" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F936" t="n">
         <v>6</v>
@@ -24791,7 +24791,7 @@
         <v>11</v>
       </c>
       <c r="D937" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E937" t="n">
         <v>11</v>
@@ -24817,13 +24817,13 @@
         <v>13</v>
       </c>
       <c r="D938" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E938" t="n">
         <v>11</v>
       </c>
       <c r="F938" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G938" t="n">
         <v>10</v>
@@ -24840,16 +24840,16 @@
         <v>1</v>
       </c>
       <c r="C939" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D939" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E939" t="n">
         <v>11</v>
       </c>
       <c r="F939" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G939" t="n">
         <v>10</v>
@@ -24901,7 +24901,7 @@
         <v>11</v>
       </c>
       <c r="F941" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G941" t="n">
         <v>11</v>
@@ -24918,7 +24918,7 @@
         <v>8</v>
       </c>
       <c r="C942" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D942" t="n">
         <v>12</v>
@@ -25028,10 +25028,10 @@
         <v>9</v>
       </c>
       <c r="E946" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F946" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G946" t="n">
         <v>8</v>
@@ -25077,7 +25077,7 @@
         <v>2</v>
       </c>
       <c r="D948" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E948" t="n">
         <v>2</v>
@@ -25135,7 +25135,7 @@
         <v>11</v>
       </c>
       <c r="F950" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G950" t="n">
         <v>11</v>
@@ -25155,13 +25155,13 @@
         <v>12</v>
       </c>
       <c r="D951" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E951" t="n">
         <v>11</v>
       </c>
       <c r="F951" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G951" t="n">
         <v>10</v>
@@ -25178,10 +25178,10 @@
         <v>6</v>
       </c>
       <c r="C952" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="D952" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E952" t="n">
         <v>7.000000000000001</v>
@@ -25204,7 +25204,7 @@
         <v>15</v>
       </c>
       <c r="C953" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D953" t="n">
         <v>12</v>
@@ -25259,13 +25259,13 @@
         <v>10</v>
       </c>
       <c r="D955" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E955" t="n">
         <v>11</v>
       </c>
       <c r="F955" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G955" t="n">
         <v>10</v>
@@ -25288,10 +25288,10 @@
         <v>8</v>
       </c>
       <c r="E956" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F956" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G956" t="n">
         <v>7.000000000000001</v>
@@ -25334,10 +25334,10 @@
         <v>5</v>
       </c>
       <c r="C958" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D958" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E958" t="n">
         <v>9</v>
@@ -25366,7 +25366,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="E959" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F959" t="n">
         <v>6</v>
@@ -25386,7 +25386,7 @@
         <v>10</v>
       </c>
       <c r="C960" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D960" t="n">
         <v>12</v>
@@ -25415,13 +25415,13 @@
         <v>11</v>
       </c>
       <c r="D961" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E961" t="n">
         <v>11</v>
       </c>
       <c r="F961" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G961" t="n">
         <v>10</v>
@@ -25441,13 +25441,13 @@
         <v>5</v>
       </c>
       <c r="D962" t="n">
+        <v>3</v>
+      </c>
+      <c r="E962" t="n">
         <v>4</v>
       </c>
-      <c r="E962" t="n">
-        <v>3</v>
-      </c>
       <c r="F962" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G962" t="n">
         <v>5</v>
